--- a/doc/jitsi-built-in.xlsx
+++ b/doc/jitsi-built-in.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bizsys.NDSPC8612\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoxianrong/PycharmProjects/jitsi-meet/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="14940" yWindow="4060" windowWidth="33000" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="ブラウザサポート状況" sheetId="1" r:id="rId1"/>
-    <sheet name="簡潔モデル" sheetId="5" r:id="rId2"/>
-    <sheet name="接続方法" sheetId="7" r:id="rId3"/>
-    <sheet name="ポップアップ機能" sheetId="2" r:id="rId4"/>
-    <sheet name="機能別ボタン表示" sheetId="4" r:id="rId5"/>
-    <sheet name="退出画面" sheetId="8" r:id="rId6"/>
+    <sheet name="接続方法" sheetId="7" r:id="rId2"/>
+    <sheet name="（補足）機能別ボタン表示" sheetId="4" r:id="rId3"/>
+    <sheet name="（補足）サムネールモデル" sheetId="5" r:id="rId4"/>
+    <sheet name="（補足）ポップアップ機能" sheetId="2" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ブラウザサポート状況!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">接続方法!$A$1:$BF$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">退出画面!$A$1:$BF$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">接続方法!$A$1:$BF$40</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇→X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14、そのたアクション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,32 +325,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今の状態</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
+    <t>初期画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショk</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
+      <t>ガメn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→X</t>
+  </si>
+  <si>
+    <t>→X</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -362,7 +373,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -370,23 +381,26 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -415,25 +429,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -441,11 +455,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -454,7 +468,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -462,17 +476,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -482,7 +496,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -490,12 +504,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,71 +518,74 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -630,15 +647,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,211 +673,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>94667</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>137337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="690563" y="1071563"/>
-          <a:ext cx="4666667" cy="6209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149242</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="7387"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="845345" y="1083468"/>
-          <a:ext cx="4750592" cy="6209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>61836</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2690812" y="2131218"/>
-          <a:ext cx="609524" cy="342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>226219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="1874" t="8622" r="1485" b="10549"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047749" y="2607469"/>
-          <a:ext cx="4298157" cy="892969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>37560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47204</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1119187" y="4561935"/>
-          <a:ext cx="4190580" cy="1403096"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>35813</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>144685</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -868,13 +693,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5929313" y="2571750"/>
-          <a:ext cx="2607563" cy="906685"/>
+          <a:off x="5377657" y="238126"/>
+          <a:ext cx="2528093" cy="698500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66804"/>
-            <a:gd name="adj2" fmla="val -13362"/>
+            <a:gd name="adj1" fmla="val -69944"/>
+            <a:gd name="adj2" fmla="val 34365"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -916,70 +741,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ポップアップ画面が出る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>」を「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Cancle</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>」でよいと思う</a:t>
+            <a:t>初期表示する際にカメラとマイクの使用を許可する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -988,15 +750,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>92870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>152494</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1006,13 +768,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="1283495"/>
-          <a:ext cx="2607563" cy="906685"/>
+          <a:off x="1208087" y="7919245"/>
+          <a:ext cx="2659157" cy="716185"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -122510"/>
-            <a:gd name="adj2" fmla="val 58862"/>
+            <a:gd name="adj1" fmla="val 14202"/>
+            <a:gd name="adj2" fmla="val -142849"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1054,7 +816,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>自分の画面（上）に「</a:t>
+            <a:t>「ミュート</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1062,7 +824,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>call</a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1070,360 +832,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>」を押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>190595</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5881688" y="4619625"/>
-          <a:ext cx="2607563" cy="906685"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -64978"/>
-            <a:gd name="adj2" fmla="val 31285"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>相手の画面（下）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>130378</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>106372</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5064919" y="973932"/>
-          <a:ext cx="4780959" cy="6276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>78582</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>97055</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118282</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="280988" y="1014413"/>
-          <a:ext cx="4673817" cy="6247619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95252</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5965033" y="1133476"/>
-          <a:ext cx="3026568" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5167313" y="6524625"/>
-          <a:ext cx="4512468" cy="511969"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9084469" y="5464968"/>
-          <a:ext cx="2512219" cy="690563"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -55430"/>
-            <a:gd name="adj2" fmla="val 103879"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ポップアップ画面必要か</a:t>
+            <a:t>解除」ボタンを押下すると</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1439,8 +848,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>必要であればいつでも表示するか</a:t>
+            <a:t>会話開始</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1448,31 +862,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138907</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>111220</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9548813" y="1107282"/>
-          <a:ext cx="2512219" cy="464344"/>
+          <a:off x="4060032" y="7937500"/>
+          <a:ext cx="2655188" cy="716185"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -68226"/>
-            <a:gd name="adj2" fmla="val -13362"/>
+            <a:gd name="adj1" fmla="val -70359"/>
+            <a:gd name="adj2" fmla="val -165993"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1507,24 +921,153 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>下の画面と一緒にポップアップする</a:t>
+            <a:t>「カメラの開始</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>停止」ボタンを押下すると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相手の顔が見える</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123818</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889001" y="920750"/>
+          <a:ext cx="4394192" cy="6324755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76918</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6887293" y="1000124"/>
+          <a:ext cx="4352207" cy="6240768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2698,15 +2241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19055</xdr:rowOff>
+      <xdr:rowOff>19056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>96434</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:rowOff>127004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2717,8 +2260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3635571" y="6063265"/>
-          <a:ext cx="361948" cy="2084778"/>
+          <a:off x="3764556" y="4668250"/>
+          <a:ext cx="298448" cy="2049059"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2749,15 +2292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28582</xdr:rowOff>
+      <xdr:rowOff>28584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>189296</xdr:colOff>
+      <xdr:colOff>189295</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>71439</xdr:rowOff>
+      <xdr:rowOff>111126</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2768,8 +2311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3793923" y="5890629"/>
-          <a:ext cx="519107" cy="2606264"/>
+          <a:off x="3942752" y="4515457"/>
+          <a:ext cx="463542" cy="2538795"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2922,15 +2465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>26205</xdr:rowOff>
+      <xdr:rowOff>26204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>67855</xdr:colOff>
+      <xdr:colOff>67854</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>111127</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2941,8 +2484,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3916562" y="5765613"/>
-          <a:ext cx="759607" cy="3092041"/>
+          <a:off x="4079278" y="4344802"/>
+          <a:ext cx="656423" cy="3068228"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2973,15 +2516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>111126</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>30963</xdr:rowOff>
+      <xdr:rowOff>30962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>13088</xdr:colOff>
+      <xdr:colOff>13089</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>71441</xdr:rowOff>
+      <xdr:rowOff>127003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2992,8 +2535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4070149" y="5604876"/>
-          <a:ext cx="992978" cy="3656401"/>
+          <a:off x="4268587" y="4176126"/>
+          <a:ext cx="858041" cy="3616713"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3024,20 +2567,262 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8940800" y="3238500"/>
+          <a:ext cx="635000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="等线"/>
+              <a:ea typeface="等线"/>
+              <a:cs typeface="等线"/>
+            </a:rPr>
+            <a:t>https://jitsiweb.kikkoman-sit.com/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="968376"/>
+          <a:ext cx="4381500" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1746251"/>
+          <a:ext cx="2460625" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66804"/>
+            <a:gd name="adj2" fmla="val -13362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>この部分しか表示していない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4222750" y="984250"/>
+          <a:ext cx="635000" cy="4746625"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130387</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61134</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>130378</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3054,8 +2839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="928689" y="1214438"/>
-          <a:ext cx="4666667" cy="6228571"/>
+          <a:off x="5064919" y="973932"/>
+          <a:ext cx="4780959" cy="6276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3064,32 +2849,77 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78582</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97055</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="280988" y="1014413"/>
+          <a:ext cx="4673817" cy="6247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>226219</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5631656" y="4500562"/>
-          <a:ext cx="845344" cy="500063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="5965033" y="1133476"/>
+          <a:ext cx="3026568" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3120,38 +2950,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6607969" y="1309688"/>
-          <a:ext cx="3786187" cy="6012656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="5167313" y="6524625"/>
+          <a:ext cx="4512468" cy="511969"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:prstDash val="sysDot"/>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3183,133 +3011,187 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8203406" y="4405312"/>
-          <a:ext cx="583407" cy="535781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+          <a:off x="9084469" y="5464968"/>
+          <a:ext cx="2512219" cy="690563"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55430"/>
+            <a:gd name="adj2" fmla="val 103879"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポップアップ画面必要か</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>必要であればいつでも表示するか</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9735343" y="916782"/>
+          <a:ext cx="2599531" cy="575468"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68226"/>
+            <a:gd name="adj2" fmla="val -13362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mouseover</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/touch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時、下の画面と一緒にポップアップする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="変更履歴"/>
-      <sheetName val="API一覧"/>
-      <sheetName val="ログインAPI"/>
-      <sheetName val="おすすめ商品リスト取得API"/>
-      <sheetName val="最新入荷商品リスト取得API"/>
-      <sheetName val="人気商品リスト取得API"/>
-      <sheetName val="カテゴリリスト取得API"/>
-      <sheetName val="商品検索API"/>
-      <sheetName val="商品詳細情報取得API"/>
-      <sheetName val="商品をCartに登録API"/>
-      <sheetName val="送り先情報取得API"/>
-      <sheetName val="カード基本情報取得API"/>
-      <sheetName val="カート商品一覧取得API"/>
-      <sheetName val="カート一覧の商品削除API"/>
-      <sheetName val="カート商品数量変更API"/>
-      <sheetName val="発注作成API"/>
-      <sheetName val="配送日取得API"/>
-      <sheetName val="購入した商品リストAPI"/>
-      <sheetName val="Order履歴一覧取得API"/>
-      <sheetName val="Order情報取得API"/>
-      <sheetName val="Order商品一覧取得API"/>
-      <sheetName val="Order商品削除API"/>
-      <sheetName val="Order商品数量変更API "/>
-      <sheetName val="Order削除API"/>
-      <sheetName val="Order再発注API"/>
-      <sheetName val="Order情報変更API"/>
-      <sheetName val="ユーザ基本情報取得API"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3577,20 +3459,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>20</v>
@@ -3605,7 +3487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +3513,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +3522,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3657,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3674,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3569,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -3704,37 +3586,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AR48" sqref="AR48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="9"/>
-    <col min="2" max="2" width="2.625" style="10"/>
+    <col min="1" max="1" width="2.6640625" style="9"/>
+    <col min="2" max="2" width="2.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3785,43 +3667,53 @@
       <c r="AX1" s="7"/>
       <c r="AY1" s="7"/>
     </row>
-    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="G7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AU16" sqref="AU16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="9"/>
-    <col min="2" max="2" width="2.625" style="10"/>
+    <col min="1" max="1" width="2.6640625" style="9"/>
+    <col min="2" max="2" width="2.6640625" style="10"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3872,35 +3764,263 @@
       <c r="AX1" s="7"/>
       <c r="AY1" s="7"/>
     </row>
-    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AU32" sqref="AU32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="9"/>
+    <col min="2" max="2" width="2.6640625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+    </row>
+    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BO11" sqref="BO11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BR54" sqref="BR54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>13</v>
@@ -3954,319 +4074,19 @@
       <c r="AW1" s="7"/>
       <c r="AX1" s="7"/>
     </row>
-    <row r="2" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AZ13" sqref="AZ13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="9"/>
-    <col min="2" max="2" width="2.625" style="10"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-    </row>
-    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A35" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BB17" sqref="BB17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="9"/>
-    <col min="2" max="2" width="2.625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-    </row>
-    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="E4" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="AP9" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>